--- a/data/stat_analiz.xlsx
+++ b/data/stat_analiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blackbox1\Documents\GitHub\Multidimensional-Statistical-Analysis-Solver\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6452F0A-5D96-4F0C-B464-BBEB2BA359D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101AB8D0-AFBF-40A9-9EE8-8B2D936B21AE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" activeTab="2" xr2:uid="{D058E3EF-B9BB-9C4E-8C26-8450DF2B1A32}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="135">
   <si>
     <t>Варіант</t>
   </si>
@@ -676,9 +676,6 @@
     <t>Об’єкти (країни) для класифікації</t>
   </si>
   <si>
-    <t>Y для завд. 4</t>
-  </si>
-  <si>
     <t>Y для завд. 3</t>
   </si>
   <si>
@@ -692,6 +689,12 @@
   </si>
   <si>
     <t>X4</t>
+  </si>
+  <si>
+    <t>Y для завд. 4(1)</t>
+  </si>
+  <si>
+    <t>Y для завд. 4(2)</t>
   </si>
 </sst>
 </file>
@@ -1284,11 +1287,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1326,6 +1326,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1342,18 +1354,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1389,7 +1389,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2291,28 +2294,28 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="88"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="87"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="60">
         <v>1</v>
       </c>
@@ -2687,10 +2690,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="88"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="60">
         <v>15</v>
       </c>
@@ -3407,10 +3410,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="88"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="60">
         <v>10.5</v>
       </c>
@@ -3443,10 +3446,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="88"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="60">
         <v>12</v>
       </c>
@@ -3506,10 +3509,10 @@
       <c r="B1" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
@@ -3518,12 +3521,12 @@
       <c r="B2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
@@ -3726,184 +3729,184 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="98">
+      <c r="A13" s="91">
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="93">
         <v>2</v>
       </c>
-      <c r="D13" s="100">
+      <c r="D13" s="93">
         <v>3</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="93">
         <v>4</v>
       </c>
-      <c r="F13" s="100">
+      <c r="F13" s="93">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="99"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="98">
+      <c r="A15" s="91">
         <v>12</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C15" s="93">
         <v>3</v>
       </c>
-      <c r="D15" s="100">
-        <v>5</v>
-      </c>
-      <c r="E15" s="100">
+      <c r="D15" s="93">
+        <v>5</v>
+      </c>
+      <c r="E15" s="93">
         <v>7</v>
       </c>
-      <c r="F15" s="100">
+      <c r="F15" s="93">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="99"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="98">
+      <c r="A17" s="91">
         <v>13</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="100">
+      <c r="C17" s="93">
         <v>1</v>
       </c>
-      <c r="D17" s="100">
+      <c r="D17" s="93">
         <v>2</v>
       </c>
-      <c r="E17" s="100">
+      <c r="E17" s="93">
         <v>10</v>
       </c>
-      <c r="F17" s="100">
+      <c r="F17" s="93">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="99"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="98">
+      <c r="A19" s="91">
         <v>14</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="100">
+      <c r="C19" s="93">
         <v>1</v>
       </c>
-      <c r="D19" s="100">
+      <c r="D19" s="93">
         <v>2</v>
       </c>
-      <c r="E19" s="100">
+      <c r="E19" s="93">
         <v>11</v>
       </c>
-      <c r="F19" s="100">
+      <c r="F19" s="93">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="99"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="98">
+      <c r="A21" s="91">
         <v>15</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="100">
-        <v>6</v>
-      </c>
-      <c r="D21" s="100">
+      <c r="C21" s="93">
+        <v>6</v>
+      </c>
+      <c r="D21" s="93">
         <v>7</v>
       </c>
-      <c r="E21" s="100">
+      <c r="E21" s="93">
         <v>11</v>
       </c>
-      <c r="F21" s="100">
+      <c r="F21" s="93">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="99"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="98">
+      <c r="A23" s="91">
         <v>16</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="100">
-        <v>5</v>
-      </c>
-      <c r="D23" s="100">
-        <v>8</v>
-      </c>
-      <c r="E23" s="100">
+      <c r="C23" s="93">
+        <v>5</v>
+      </c>
+      <c r="D23" s="93">
+        <v>8</v>
+      </c>
+      <c r="E23" s="93">
         <v>10</v>
       </c>
-      <c r="F23" s="100">
+      <c r="F23" s="93">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="99"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
@@ -4286,184 +4289,184 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="98">
+      <c r="A44" s="91">
         <v>36</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="100">
+      <c r="C44" s="93">
         <v>1</v>
       </c>
-      <c r="D44" s="100">
+      <c r="D44" s="93">
         <v>2</v>
       </c>
-      <c r="E44" s="100">
+      <c r="E44" s="93">
         <v>3</v>
       </c>
-      <c r="F44" s="100">
+      <c r="F44" s="93">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="99"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="98">
+      <c r="A46" s="91">
         <v>37</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="100">
+      <c r="C46" s="93">
         <v>1</v>
       </c>
-      <c r="D46" s="100">
+      <c r="D46" s="93">
         <v>2</v>
       </c>
-      <c r="E46" s="100">
+      <c r="E46" s="93">
         <v>3</v>
       </c>
-      <c r="F46" s="100">
+      <c r="F46" s="93">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="99"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="98">
+      <c r="A48" s="91">
         <v>38</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="100">
+      <c r="C48" s="93">
         <v>1</v>
       </c>
-      <c r="D48" s="100">
-        <v>5</v>
-      </c>
-      <c r="E48" s="100">
+      <c r="D48" s="93">
+        <v>5</v>
+      </c>
+      <c r="E48" s="93">
         <v>11</v>
       </c>
-      <c r="F48" s="100">
+      <c r="F48" s="93">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="99"/>
+      <c r="A49" s="92"/>
       <c r="B49" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="98">
+      <c r="A50" s="91">
         <v>39</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="100">
+      <c r="C50" s="93">
         <v>1</v>
       </c>
-      <c r="D50" s="100">
-        <v>6</v>
-      </c>
-      <c r="E50" s="100">
-        <v>8</v>
-      </c>
-      <c r="F50" s="100">
+      <c r="D50" s="93">
+        <v>6</v>
+      </c>
+      <c r="E50" s="93">
+        <v>8</v>
+      </c>
+      <c r="F50" s="93">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="99"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="98">
+      <c r="A52" s="91">
         <v>40</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="100">
+      <c r="C52" s="93">
         <v>1</v>
       </c>
-      <c r="D52" s="100">
+      <c r="D52" s="93">
         <v>7</v>
       </c>
-      <c r="E52" s="100">
-        <v>8</v>
-      </c>
-      <c r="F52" s="100">
+      <c r="E52" s="93">
+        <v>8</v>
+      </c>
+      <c r="F52" s="93">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="99"/>
+      <c r="A53" s="92"/>
       <c r="B53" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="94"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="98">
+      <c r="A54" s="91">
         <v>41</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="100">
+      <c r="C54" s="93">
         <v>2</v>
       </c>
-      <c r="D54" s="100">
+      <c r="D54" s="93">
         <v>3</v>
       </c>
-      <c r="E54" s="100">
+      <c r="E54" s="93">
         <v>4</v>
       </c>
-      <c r="F54" s="100">
+      <c r="F54" s="93">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="99"/>
+      <c r="A55" s="92"/>
       <c r="B55" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="94"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28">
@@ -4650,61 +4653,6 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A13:A14"/>
@@ -4712,6 +4660,61 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4729,29 +4732,29 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="76"/>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51">
@@ -6079,13 +6082,13 @@
       <c r="B1" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="81"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51">
@@ -7265,12 +7268,12 @@
       <c r="B1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="107"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51">
@@ -7473,184 +7476,184 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="109">
+      <c r="A12" s="108">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="111">
+      <c r="C12" s="110">
         <v>2</v>
       </c>
-      <c r="D12" s="111">
+      <c r="D12" s="110">
         <v>3</v>
       </c>
-      <c r="E12" s="111">
+      <c r="E12" s="110">
         <v>4</v>
       </c>
-      <c r="F12" s="111">
+      <c r="F12" s="110">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="110"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="109">
+      <c r="A14" s="108">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="111">
+      <c r="C14" s="110">
         <v>3</v>
       </c>
-      <c r="D14" s="111">
-        <v>5</v>
-      </c>
-      <c r="E14" s="111">
+      <c r="D14" s="110">
+        <v>5</v>
+      </c>
+      <c r="E14" s="110">
         <v>7</v>
       </c>
-      <c r="F14" s="111">
+      <c r="F14" s="110">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="109">
+      <c r="A16" s="108">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="111">
+      <c r="C16" s="110">
         <v>1</v>
       </c>
-      <c r="D16" s="111">
+      <c r="D16" s="110">
         <v>2</v>
       </c>
-      <c r="E16" s="111">
+      <c r="E16" s="110">
         <v>10</v>
       </c>
-      <c r="F16" s="111">
+      <c r="F16" s="110">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="110"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="109">
+      <c r="A18" s="108">
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="111">
+      <c r="C18" s="110">
         <v>1</v>
       </c>
-      <c r="D18" s="111">
+      <c r="D18" s="110">
         <v>2</v>
       </c>
-      <c r="E18" s="111">
+      <c r="E18" s="110">
         <v>11</v>
       </c>
-      <c r="F18" s="111">
+      <c r="F18" s="110">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="110"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="109">
+      <c r="A20" s="108">
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="111">
-        <v>6</v>
-      </c>
-      <c r="D20" s="111">
+      <c r="C20" s="110">
+        <v>6</v>
+      </c>
+      <c r="D20" s="110">
         <v>7</v>
       </c>
-      <c r="E20" s="111">
+      <c r="E20" s="110">
         <v>11</v>
       </c>
-      <c r="F20" s="111">
+      <c r="F20" s="110">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="109">
+      <c r="A22" s="108">
         <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="111">
-        <v>5</v>
-      </c>
-      <c r="D22" s="111">
-        <v>8</v>
-      </c>
-      <c r="E22" s="111">
+      <c r="C22" s="110">
+        <v>5</v>
+      </c>
+      <c r="D22" s="110">
+        <v>8</v>
+      </c>
+      <c r="E22" s="110">
         <v>10</v>
       </c>
-      <c r="F22" s="111">
+      <c r="F22" s="110">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="110"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51">
@@ -8033,184 +8036,184 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="109">
+      <c r="A43" s="108">
         <v>36</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="111">
+      <c r="C43" s="110">
         <v>1</v>
       </c>
-      <c r="D43" s="111">
+      <c r="D43" s="110">
         <v>2</v>
       </c>
-      <c r="E43" s="111">
+      <c r="E43" s="110">
         <v>3</v>
       </c>
-      <c r="F43" s="111">
+      <c r="F43" s="110">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="110"/>
+      <c r="A44" s="109"/>
       <c r="B44" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="109">
+      <c r="A45" s="108">
         <v>37</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="111">
+      <c r="C45" s="110">
         <v>1</v>
       </c>
-      <c r="D45" s="111">
+      <c r="D45" s="110">
         <v>2</v>
       </c>
-      <c r="E45" s="111">
+      <c r="E45" s="110">
         <v>3</v>
       </c>
-      <c r="F45" s="111">
+      <c r="F45" s="110">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="110"/>
+      <c r="A46" s="109"/>
       <c r="B46" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="109">
+      <c r="A47" s="108">
         <v>38</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="111">
+      <c r="C47" s="110">
         <v>1</v>
       </c>
-      <c r="D47" s="111">
-        <v>5</v>
-      </c>
-      <c r="E47" s="111">
+      <c r="D47" s="110">
+        <v>5</v>
+      </c>
+      <c r="E47" s="110">
         <v>11</v>
       </c>
-      <c r="F47" s="111">
+      <c r="F47" s="110">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="110"/>
+      <c r="A48" s="109"/>
       <c r="B48" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="112"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="109">
+      <c r="A49" s="108">
         <v>39</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="111">
+      <c r="C49" s="110">
         <v>1</v>
       </c>
-      <c r="D49" s="111">
-        <v>6</v>
-      </c>
-      <c r="E49" s="111">
-        <v>8</v>
-      </c>
-      <c r="F49" s="111">
+      <c r="D49" s="110">
+        <v>6</v>
+      </c>
+      <c r="E49" s="110">
+        <v>8</v>
+      </c>
+      <c r="F49" s="110">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="110"/>
+      <c r="A50" s="109"/>
       <c r="B50" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="109">
+      <c r="A51" s="108">
         <v>40</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="111">
+      <c r="C51" s="110">
         <v>1</v>
       </c>
-      <c r="D51" s="111">
+      <c r="D51" s="110">
         <v>7</v>
       </c>
-      <c r="E51" s="111">
-        <v>8</v>
-      </c>
-      <c r="F51" s="111">
+      <c r="E51" s="110">
+        <v>8</v>
+      </c>
+      <c r="F51" s="110">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="110"/>
+      <c r="A52" s="109"/>
       <c r="B52" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="112"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="109">
+      <c r="A53" s="108">
         <v>41</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="111">
+      <c r="C53" s="110">
         <v>2</v>
       </c>
-      <c r="D53" s="111">
+      <c r="D53" s="110">
         <v>3</v>
       </c>
-      <c r="E53" s="111">
+      <c r="E53" s="110">
         <v>4</v>
       </c>
-      <c r="F53" s="111">
+      <c r="F53" s="110">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="110"/>
+      <c r="A54" s="109"/>
       <c r="B54" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="51">
@@ -8394,67 +8397,67 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10309,33 +10312,35 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="113" t="s">
+      <c r="F1" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="G1" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="H1" s="78" t="s">
         <v>132</v>
-      </c>
-      <c r="H1" s="113" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11639,9 +11644,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14007,10 +14009,10 @@
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="81"/>
+      <c r="C1" s="80"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51">
@@ -17319,11 +17321,11 @@
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63">
@@ -18047,10 +18049,10 @@
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="86"/>
+      <c r="C1" s="85"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="70">

--- a/data/stat_analiz.xlsx
+++ b/data/stat_analiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blackbox1\Documents\GitHub\Multidimensional-Statistical-Analysis-Solver\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101AB8D0-AFBF-40A9-9EE8-8B2D936B21AE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB7F799-D959-437F-9321-83C1FFECC50A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" activeTab="2" xr2:uid="{D058E3EF-B9BB-9C4E-8C26-8450DF2B1A32}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" activeTab="4" xr2:uid="{D058E3EF-B9BB-9C4E-8C26-8450DF2B1A32}"/>
   </bookViews>
   <sheets>
     <sheet name="А.1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="137">
   <si>
     <t>Варіант</t>
   </si>
@@ -696,6 +696,12 @@
   <si>
     <t>Y для завд. 4(2)</t>
   </si>
+  <si>
+    <t>Ознаки1</t>
+  </si>
+  <si>
+    <t>Ознаки2</t>
+  </si>
 </sst>
 </file>
 
@@ -1064,7 +1070,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1290,6 +1296,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1326,18 +1338,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1354,6 +1354,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1389,10 +1401,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2294,28 +2306,28 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="87"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="89"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
       <c r="C2" s="60">
         <v>1</v>
       </c>
@@ -2690,10 +2702,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="87"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="60">
         <v>15</v>
       </c>
@@ -3410,10 +3422,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="87"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="60">
         <v>10.5</v>
       </c>
@@ -3446,10 +3458,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="87"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="60">
         <v>12</v>
       </c>
@@ -3509,10 +3521,10 @@
       <c r="B1" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
@@ -3521,12 +3533,12 @@
       <c r="B2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
@@ -3729,184 +3741,184 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="91">
+      <c r="A13" s="99">
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="93">
+      <c r="C13" s="101">
         <v>2</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="101">
         <v>3</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="101">
         <v>4</v>
       </c>
-      <c r="F13" s="93">
+      <c r="F13" s="101">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="92"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
+      <c r="A15" s="99">
         <v>12</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="93">
+      <c r="C15" s="101">
         <v>3</v>
       </c>
-      <c r="D15" s="93">
-        <v>5</v>
-      </c>
-      <c r="E15" s="93">
+      <c r="D15" s="101">
+        <v>5</v>
+      </c>
+      <c r="E15" s="101">
         <v>7</v>
       </c>
-      <c r="F15" s="93">
+      <c r="F15" s="101">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="91">
+      <c r="A17" s="99">
         <v>13</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="93">
+      <c r="C17" s="101">
         <v>1</v>
       </c>
-      <c r="D17" s="93">
+      <c r="D17" s="101">
         <v>2</v>
       </c>
-      <c r="E17" s="93">
+      <c r="E17" s="101">
         <v>10</v>
       </c>
-      <c r="F17" s="93">
+      <c r="F17" s="101">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="92"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="91">
+      <c r="A19" s="99">
         <v>14</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="93">
+      <c r="C19" s="101">
         <v>1</v>
       </c>
-      <c r="D19" s="93">
+      <c r="D19" s="101">
         <v>2</v>
       </c>
-      <c r="E19" s="93">
+      <c r="E19" s="101">
         <v>11</v>
       </c>
-      <c r="F19" s="93">
+      <c r="F19" s="101">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="91">
+      <c r="A21" s="99">
         <v>15</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="93">
-        <v>6</v>
-      </c>
-      <c r="D21" s="93">
+      <c r="C21" s="101">
+        <v>6</v>
+      </c>
+      <c r="D21" s="101">
         <v>7</v>
       </c>
-      <c r="E21" s="93">
+      <c r="E21" s="101">
         <v>11</v>
       </c>
-      <c r="F21" s="93">
+      <c r="F21" s="101">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="92"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="91">
+      <c r="A23" s="99">
         <v>16</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="93">
-        <v>5</v>
-      </c>
-      <c r="D23" s="93">
-        <v>8</v>
-      </c>
-      <c r="E23" s="93">
+      <c r="C23" s="101">
+        <v>5</v>
+      </c>
+      <c r="D23" s="101">
+        <v>8</v>
+      </c>
+      <c r="E23" s="101">
         <v>10</v>
       </c>
-      <c r="F23" s="93">
+      <c r="F23" s="101">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="92"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
@@ -4289,184 +4301,184 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="91">
+      <c r="A44" s="99">
         <v>36</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="93">
+      <c r="C44" s="101">
         <v>1</v>
       </c>
-      <c r="D44" s="93">
+      <c r="D44" s="101">
         <v>2</v>
       </c>
-      <c r="E44" s="93">
+      <c r="E44" s="101">
         <v>3</v>
       </c>
-      <c r="F44" s="93">
+      <c r="F44" s="101">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="92"/>
+      <c r="A45" s="100"/>
       <c r="B45" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="91">
+      <c r="A46" s="99">
         <v>37</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="93">
+      <c r="C46" s="101">
         <v>1</v>
       </c>
-      <c r="D46" s="93">
+      <c r="D46" s="101">
         <v>2</v>
       </c>
-      <c r="E46" s="93">
+      <c r="E46" s="101">
         <v>3</v>
       </c>
-      <c r="F46" s="93">
+      <c r="F46" s="101">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="92"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="91">
+      <c r="A48" s="99">
         <v>38</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="93">
+      <c r="C48" s="101">
         <v>1</v>
       </c>
-      <c r="D48" s="93">
-        <v>5</v>
-      </c>
-      <c r="E48" s="93">
+      <c r="D48" s="101">
+        <v>5</v>
+      </c>
+      <c r="E48" s="101">
         <v>11</v>
       </c>
-      <c r="F48" s="93">
+      <c r="F48" s="101">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="92"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="91">
+      <c r="A50" s="99">
         <v>39</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="93">
+      <c r="C50" s="101">
         <v>1</v>
       </c>
-      <c r="D50" s="93">
-        <v>6</v>
-      </c>
-      <c r="E50" s="93">
-        <v>8</v>
-      </c>
-      <c r="F50" s="93">
+      <c r="D50" s="101">
+        <v>6</v>
+      </c>
+      <c r="E50" s="101">
+        <v>8</v>
+      </c>
+      <c r="F50" s="101">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="92"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="91">
+      <c r="A52" s="99">
         <v>40</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="93">
+      <c r="C52" s="101">
         <v>1</v>
       </c>
-      <c r="D52" s="93">
+      <c r="D52" s="101">
         <v>7</v>
       </c>
-      <c r="E52" s="93">
-        <v>8</v>
-      </c>
-      <c r="F52" s="93">
+      <c r="E52" s="101">
+        <v>8</v>
+      </c>
+      <c r="F52" s="101">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="92"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="91">
+      <c r="A54" s="99">
         <v>41</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="93">
+      <c r="C54" s="101">
         <v>2</v>
       </c>
-      <c r="D54" s="93">
+      <c r="D54" s="101">
         <v>3</v>
       </c>
-      <c r="E54" s="93">
+      <c r="E54" s="101">
         <v>4</v>
       </c>
-      <c r="F54" s="93">
+      <c r="F54" s="101">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="92"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28">
@@ -4653,6 +4665,61 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A13:A14"/>
@@ -4660,61 +4727,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4732,29 +4744,29 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="76"/>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51">
@@ -6082,13 +6094,13 @@
       <c r="B1" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="80"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51">
@@ -7268,12 +7280,12 @@
       <c r="B1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51">
@@ -7476,184 +7488,184 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
+      <c r="A12" s="110">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="110">
+      <c r="C12" s="112">
         <v>2</v>
       </c>
-      <c r="D12" s="110">
+      <c r="D12" s="112">
         <v>3</v>
       </c>
-      <c r="E12" s="110">
+      <c r="E12" s="112">
         <v>4</v>
       </c>
-      <c r="F12" s="110">
+      <c r="F12" s="112">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="109"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+      <c r="A14" s="110">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="110">
+      <c r="C14" s="112">
         <v>3</v>
       </c>
-      <c r="D14" s="110">
-        <v>5</v>
-      </c>
-      <c r="E14" s="110">
+      <c r="D14" s="112">
+        <v>5</v>
+      </c>
+      <c r="E14" s="112">
         <v>7</v>
       </c>
-      <c r="F14" s="110">
+      <c r="F14" s="112">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="109"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="108">
+      <c r="A16" s="110">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="110">
+      <c r="C16" s="112">
         <v>1</v>
       </c>
-      <c r="D16" s="110">
+      <c r="D16" s="112">
         <v>2</v>
       </c>
-      <c r="E16" s="110">
+      <c r="E16" s="112">
         <v>10</v>
       </c>
-      <c r="F16" s="110">
+      <c r="F16" s="112">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="108">
+      <c r="A18" s="110">
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="110">
+      <c r="C18" s="112">
         <v>1</v>
       </c>
-      <c r="D18" s="110">
+      <c r="D18" s="112">
         <v>2</v>
       </c>
-      <c r="E18" s="110">
+      <c r="E18" s="112">
         <v>11</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="112">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="109"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="108">
+      <c r="A20" s="110">
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="110">
-        <v>6</v>
-      </c>
-      <c r="D20" s="110">
+      <c r="C20" s="112">
+        <v>6</v>
+      </c>
+      <c r="D20" s="112">
         <v>7</v>
       </c>
-      <c r="E20" s="110">
+      <c r="E20" s="112">
         <v>11</v>
       </c>
-      <c r="F20" s="110">
+      <c r="F20" s="112">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="109"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="108">
+      <c r="A22" s="110">
         <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="110">
-        <v>5</v>
-      </c>
-      <c r="D22" s="110">
-        <v>8</v>
-      </c>
-      <c r="E22" s="110">
+      <c r="C22" s="112">
+        <v>5</v>
+      </c>
+      <c r="D22" s="112">
+        <v>8</v>
+      </c>
+      <c r="E22" s="112">
         <v>10</v>
       </c>
-      <c r="F22" s="110">
+      <c r="F22" s="112">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="109"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51">
@@ -8036,184 +8048,184 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="108">
+      <c r="A43" s="110">
         <v>36</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="110">
+      <c r="C43" s="112">
         <v>1</v>
       </c>
-      <c r="D43" s="110">
+      <c r="D43" s="112">
         <v>2</v>
       </c>
-      <c r="E43" s="110">
+      <c r="E43" s="112">
         <v>3</v>
       </c>
-      <c r="F43" s="110">
+      <c r="F43" s="112">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="109"/>
+      <c r="A44" s="111"/>
       <c r="B44" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="108">
+      <c r="A45" s="110">
         <v>37</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="110">
+      <c r="C45" s="112">
         <v>1</v>
       </c>
-      <c r="D45" s="110">
+      <c r="D45" s="112">
         <v>2</v>
       </c>
-      <c r="E45" s="110">
+      <c r="E45" s="112">
         <v>3</v>
       </c>
-      <c r="F45" s="110">
+      <c r="F45" s="112">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="109"/>
+      <c r="A46" s="111"/>
       <c r="B46" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="108">
+      <c r="A47" s="110">
         <v>38</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="110">
+      <c r="C47" s="112">
         <v>1</v>
       </c>
-      <c r="D47" s="110">
-        <v>5</v>
-      </c>
-      <c r="E47" s="110">
+      <c r="D47" s="112">
+        <v>5</v>
+      </c>
+      <c r="E47" s="112">
         <v>11</v>
       </c>
-      <c r="F47" s="110">
+      <c r="F47" s="112">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="109"/>
+      <c r="A48" s="111"/>
       <c r="B48" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="111"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="108">
+      <c r="A49" s="110">
         <v>39</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="110">
+      <c r="C49" s="112">
         <v>1</v>
       </c>
-      <c r="D49" s="110">
-        <v>6</v>
-      </c>
-      <c r="E49" s="110">
-        <v>8</v>
-      </c>
-      <c r="F49" s="110">
+      <c r="D49" s="112">
+        <v>6</v>
+      </c>
+      <c r="E49" s="112">
+        <v>8</v>
+      </c>
+      <c r="F49" s="112">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="109"/>
+      <c r="A50" s="111"/>
       <c r="B50" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="113"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="108">
+      <c r="A51" s="110">
         <v>40</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="110">
+      <c r="C51" s="112">
         <v>1</v>
       </c>
-      <c r="D51" s="110">
+      <c r="D51" s="112">
         <v>7</v>
       </c>
-      <c r="E51" s="110">
-        <v>8</v>
-      </c>
-      <c r="F51" s="110">
+      <c r="E51" s="112">
+        <v>8</v>
+      </c>
+      <c r="F51" s="112">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="109"/>
+      <c r="A52" s="111"/>
       <c r="B52" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="111"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="108">
+      <c r="A53" s="110">
         <v>41</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="110">
+      <c r="C53" s="112">
         <v>2</v>
       </c>
-      <c r="D53" s="110">
+      <c r="D53" s="112">
         <v>3</v>
       </c>
-      <c r="E53" s="110">
+      <c r="E53" s="112">
         <v>4</v>
       </c>
-      <c r="F53" s="110">
+      <c r="F53" s="112">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="109"/>
+      <c r="A54" s="111"/>
       <c r="B54" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="111"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="111"/>
-      <c r="F54" s="111"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="51">
@@ -8397,67 +8409,67 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10311,8 +10323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EA78DF-8039-9D42-9337-C9224A92B28C}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10324,10 +10336,10 @@
       <c r="B1" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="80" t="s">
         <v>134</v>
       </c>
       <c r="E1" s="78" t="s">
@@ -13999,8 +14011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A627CEA-012C-EF45-ABDD-149CED4F2A13}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14009,10 +14021,12 @@
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="80"/>
+      <c r="B1" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51">
@@ -14565,9 +14579,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17321,11 +17332,11 @@
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63">
@@ -18049,10 +18060,10 @@
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="85"/>
+      <c r="C1" s="87"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="70">

--- a/data/stat_analiz.xlsx
+++ b/data/stat_analiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blackbox1\Documents\GitHub\Multidimensional-Statistical-Analysis-Solver\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB7F799-D959-437F-9321-83C1FFECC50A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A848622-A622-4A53-A618-2B92A5A62370}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" activeTab="4" xr2:uid="{D058E3EF-B9BB-9C4E-8C26-8450DF2B1A32}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" activeTab="7" xr2:uid="{D058E3EF-B9BB-9C4E-8C26-8450DF2B1A32}"/>
   </bookViews>
   <sheets>
     <sheet name="А.1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="139">
   <si>
     <t>Варіант</t>
   </si>
@@ -562,9 +562,6 @@
     <t>Гнучкість</t>
   </si>
   <si>
-    <t>Номери експертів</t>
-  </si>
-  <si>
     <t>С</t>
   </si>
   <si>
@@ -701,6 +698,15 @@
   </si>
   <si>
     <t>Ознаки2</t>
+  </si>
+  <si>
+    <t>Номери експертів(1)</t>
+  </si>
+  <si>
+    <t>Номери експертів(2)</t>
+  </si>
+  <si>
+    <t>Номери експертів(3)</t>
   </si>
 </sst>
 </file>
@@ -1303,19 +1309,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1338,6 +1335,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1354,18 +1363,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1386,7 +1383,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1401,10 +1404,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2306,28 +2312,28 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="86"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="60">
         <v>1</v>
       </c>
@@ -2364,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="9">
         <v>21</v>
@@ -2402,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="9">
         <v>0</v>
@@ -2440,7 +2446,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="9">
         <v>12</v>
@@ -2478,7 +2484,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="9">
         <v>12</v>
@@ -2516,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="9">
         <v>21</v>
@@ -2554,7 +2560,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="9">
         <v>12</v>
@@ -2592,7 +2598,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="9">
         <v>15</v>
@@ -2630,7 +2636,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="9">
         <v>21</v>
@@ -2668,7 +2674,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="9">
         <v>24</v>
@@ -2702,10 +2708,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="89"/>
+      <c r="A12" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="86"/>
       <c r="C12" s="60">
         <v>15</v>
       </c>
@@ -2742,7 +2748,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="9">
         <v>3</v>
@@ -2780,7 +2786,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="9">
         <v>0</v>
@@ -2818,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="9">
         <v>21</v>
@@ -2856,7 +2862,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="9">
         <v>21</v>
@@ -2894,7 +2900,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="9">
         <v>24</v>
@@ -2932,7 +2938,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="9">
         <v>6</v>
@@ -2970,7 +2976,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="9">
         <v>18</v>
@@ -3008,7 +3014,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="9">
         <v>12</v>
@@ -3046,7 +3052,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="9">
         <v>21</v>
@@ -3084,7 +3090,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="9">
         <v>6</v>
@@ -3122,7 +3128,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="9">
         <v>6</v>
@@ -3160,7 +3166,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="9">
         <v>9</v>
@@ -3198,7 +3204,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="9">
         <v>15</v>
@@ -3236,7 +3242,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="9">
         <v>9</v>
@@ -3274,7 +3280,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="9">
         <v>18</v>
@@ -3312,7 +3318,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="9">
         <v>9</v>
@@ -3350,7 +3356,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="9">
         <v>3</v>
@@ -3388,7 +3394,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="9">
         <v>24</v>
@@ -3422,10 +3428,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="89"/>
+      <c r="A31" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="86"/>
       <c r="C31" s="60">
         <v>10.5</v>
       </c>
@@ -3458,10 +3464,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="88" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="89"/>
+      <c r="A32" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="86"/>
       <c r="C32" s="60">
         <v>12</v>
       </c>
@@ -3519,33 +3525,33 @@
     <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="75"/>
       <c r="B1" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+        <v>123</v>
+      </c>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
@@ -3565,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="25">
         <v>1</v>
@@ -3585,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
@@ -3605,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="25">
         <v>1</v>
@@ -3625,7 +3631,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="25">
         <v>1</v>
@@ -3645,7 +3651,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="25">
         <v>2</v>
@@ -3665,7 +3671,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="25">
         <v>6</v>
@@ -3685,7 +3691,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="25">
         <v>6</v>
@@ -3705,7 +3711,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="25">
         <v>6</v>
@@ -3725,7 +3731,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="25">
         <v>5</v>
@@ -3741,191 +3747,191 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="99">
+      <c r="A13" s="90">
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="92">
+        <v>2</v>
+      </c>
+      <c r="D13" s="92">
+        <v>3</v>
+      </c>
+      <c r="E13" s="92">
+        <v>4</v>
+      </c>
+      <c r="F13" s="92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="91"/>
+      <c r="B14" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="90">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="92">
+        <v>3</v>
+      </c>
+      <c r="D15" s="92">
+        <v>5</v>
+      </c>
+      <c r="E15" s="92">
+        <v>7</v>
+      </c>
+      <c r="F15" s="92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="91"/>
+      <c r="B16" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="90">
+        <v>13</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="92">
+        <v>1</v>
+      </c>
+      <c r="D17" s="92">
         <v>2</v>
       </c>
-      <c r="D13" s="101">
-        <v>3</v>
-      </c>
-      <c r="E13" s="101">
-        <v>4</v>
-      </c>
-      <c r="F13" s="101">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
-      <c r="B14" s="25" t="s">
+      <c r="E17" s="92">
+        <v>10</v>
+      </c>
+      <c r="F17" s="92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="91"/>
+      <c r="B18" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="90">
+        <v>14</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="92">
+        <v>1</v>
+      </c>
+      <c r="D19" s="92">
+        <v>2</v>
+      </c>
+      <c r="E19" s="92">
+        <v>11</v>
+      </c>
+      <c r="F19" s="92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="91"/>
+      <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="99">
-        <v>12</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="90">
+        <v>15</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="92">
+        <v>6</v>
+      </c>
+      <c r="D21" s="92">
+        <v>7</v>
+      </c>
+      <c r="E21" s="92">
+        <v>11</v>
+      </c>
+      <c r="F21" s="92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="91"/>
+      <c r="B22" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="101">
-        <v>3</v>
-      </c>
-      <c r="D15" s="101">
-        <v>5</v>
-      </c>
-      <c r="E15" s="101">
-        <v>7</v>
-      </c>
-      <c r="F15" s="101">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
-      <c r="B16" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="99">
-        <v>13</v>
-      </c>
-      <c r="B17" s="19" t="s">
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="90">
+        <v>16</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="101">
-        <v>1</v>
-      </c>
-      <c r="D17" s="101">
-        <v>2</v>
-      </c>
-      <c r="E17" s="101">
+      <c r="C23" s="92">
+        <v>5</v>
+      </c>
+      <c r="D23" s="92">
+        <v>8</v>
+      </c>
+      <c r="E23" s="92">
         <v>10</v>
       </c>
-      <c r="F17" s="101">
+      <c r="F23" s="92">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="100"/>
-      <c r="B18" s="25" t="s">
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="91"/>
+      <c r="B24" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="99">
-        <v>14</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="101">
-        <v>1</v>
-      </c>
-      <c r="D19" s="101">
-        <v>2</v>
-      </c>
-      <c r="E19" s="101">
-        <v>11</v>
-      </c>
-      <c r="F19" s="101">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
-      <c r="B20" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="99">
-        <v>15</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="101">
-        <v>6</v>
-      </c>
-      <c r="D21" s="101">
-        <v>7</v>
-      </c>
-      <c r="E21" s="101">
-        <v>11</v>
-      </c>
-      <c r="F21" s="101">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
-      <c r="B22" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="99">
-        <v>16</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="101">
-        <v>5</v>
-      </c>
-      <c r="D23" s="101">
-        <v>8</v>
-      </c>
-      <c r="E23" s="101">
-        <v>10</v>
-      </c>
-      <c r="F23" s="101">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="100"/>
-      <c r="B24" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
         <v>17</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="25">
         <v>2</v>
@@ -3945,7 +3951,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="25">
         <v>2</v>
@@ -3965,7 +3971,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="25">
         <v>3</v>
@@ -3985,7 +3991,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="25">
         <v>5</v>
@@ -4005,7 +4011,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="25">
         <v>1</v>
@@ -4025,7 +4031,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="25">
         <v>1</v>
@@ -4045,7 +4051,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="25">
         <v>1</v>
@@ -4065,7 +4071,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="25">
         <v>1</v>
@@ -4085,7 +4091,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C33" s="25">
         <v>1</v>
@@ -4105,7 +4111,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="31">
         <v>2</v>
@@ -4125,7 +4131,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="25">
         <v>3</v>
@@ -4145,7 +4151,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="25">
         <v>1</v>
@@ -4165,7 +4171,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" s="25">
         <v>1</v>
@@ -4185,7 +4191,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="25">
         <v>6</v>
@@ -4205,7 +4211,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="25">
         <v>5</v>
@@ -4225,7 +4231,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="25">
         <v>2</v>
@@ -4245,7 +4251,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="25">
         <v>2</v>
@@ -4265,7 +4271,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C42" s="25">
         <v>3</v>
@@ -4285,207 +4291,207 @@
         <v>35</v>
       </c>
       <c r="B43" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="25">
+        <v>5</v>
+      </c>
+      <c r="D43" s="25">
+        <v>6</v>
+      </c>
+      <c r="E43" s="25">
+        <v>8</v>
+      </c>
+      <c r="F43" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="90">
+        <v>36</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="25">
-        <v>5</v>
-      </c>
-      <c r="D43" s="25">
-        <v>6</v>
-      </c>
-      <c r="E43" s="25">
-        <v>8</v>
-      </c>
-      <c r="F43" s="25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="99">
-        <v>36</v>
-      </c>
-      <c r="B44" s="19" t="s">
+      <c r="C44" s="92">
+        <v>1</v>
+      </c>
+      <c r="D44" s="92">
+        <v>2</v>
+      </c>
+      <c r="E44" s="92">
+        <v>3</v>
+      </c>
+      <c r="F44" s="92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="91"/>
+      <c r="B45" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="101">
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="90">
+        <v>37</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="92">
         <v>1</v>
       </c>
-      <c r="D44" s="101">
+      <c r="D46" s="92">
         <v>2</v>
       </c>
-      <c r="E44" s="101">
+      <c r="E46" s="92">
         <v>3</v>
       </c>
-      <c r="F44" s="101">
+      <c r="F46" s="92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="91"/>
+      <c r="B47" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="90">
+        <v>38</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="92">
+        <v>1</v>
+      </c>
+      <c r="D48" s="92">
+        <v>5</v>
+      </c>
+      <c r="E48" s="92">
+        <v>11</v>
+      </c>
+      <c r="F48" s="92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="91"/>
+      <c r="B49" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="90">
+        <v>39</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="92">
+        <v>1</v>
+      </c>
+      <c r="D50" s="92">
+        <v>6</v>
+      </c>
+      <c r="E50" s="92">
+        <v>8</v>
+      </c>
+      <c r="F50" s="92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="91"/>
+      <c r="B51" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="90">
+        <v>40</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="92">
+        <v>1</v>
+      </c>
+      <c r="D52" s="92">
+        <v>7</v>
+      </c>
+      <c r="E52" s="92">
+        <v>8</v>
+      </c>
+      <c r="F52" s="92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="91"/>
+      <c r="B53" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="90">
+        <v>41</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="92">
+        <v>2</v>
+      </c>
+      <c r="D54" s="92">
+        <v>3</v>
+      </c>
+      <c r="E54" s="92">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="100"/>
-      <c r="B45" s="25" t="s">
+      <c r="F54" s="92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="91"/>
+      <c r="B55" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="102"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="99">
-        <v>37</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="101">
-        <v>1</v>
-      </c>
-      <c r="D46" s="101">
-        <v>2</v>
-      </c>
-      <c r="E46" s="101">
-        <v>3</v>
-      </c>
-      <c r="F46" s="101">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
-      <c r="B47" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="99">
-        <v>38</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="101">
-        <v>1</v>
-      </c>
-      <c r="D48" s="101">
-        <v>5</v>
-      </c>
-      <c r="E48" s="101">
-        <v>11</v>
-      </c>
-      <c r="F48" s="101">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="100"/>
-      <c r="B49" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="99">
-        <v>39</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="101">
-        <v>1</v>
-      </c>
-      <c r="D50" s="101">
-        <v>6</v>
-      </c>
-      <c r="E50" s="101">
-        <v>8</v>
-      </c>
-      <c r="F50" s="101">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
-      <c r="B51" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="99">
-        <v>40</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" s="101">
-        <v>1</v>
-      </c>
-      <c r="D52" s="101">
-        <v>7</v>
-      </c>
-      <c r="E52" s="101">
-        <v>8</v>
-      </c>
-      <c r="F52" s="101">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="100"/>
-      <c r="B53" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="99">
-        <v>41</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="101">
-        <v>2</v>
-      </c>
-      <c r="D54" s="101">
-        <v>3</v>
-      </c>
-      <c r="E54" s="101">
-        <v>4</v>
-      </c>
-      <c r="F54" s="101">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="100"/>
-      <c r="B55" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="102"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
-      <c r="F55" s="102"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28">
         <v>42</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C56" s="25">
         <v>6</v>
@@ -4505,7 +4511,7 @@
         <v>43</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="25">
         <v>6</v>
@@ -4525,7 +4531,7 @@
         <v>44</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" s="25">
         <v>6</v>
@@ -4545,7 +4551,7 @@
         <v>45</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" s="25">
         <v>5</v>
@@ -4565,7 +4571,7 @@
         <v>46</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60" s="25">
         <v>5</v>
@@ -4585,7 +4591,7 @@
         <v>47</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C61" s="25">
         <v>2</v>
@@ -4605,7 +4611,7 @@
         <v>48</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" s="25">
         <v>2</v>
@@ -4625,7 +4631,7 @@
         <v>49</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" s="25">
         <v>3</v>
@@ -4645,7 +4651,7 @@
         <v>50</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="25">
         <v>5</v>
@@ -4665,61 +4671,6 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A13:A14"/>
@@ -4727,6 +4678,61 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4744,29 +4750,29 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="76"/>
-      <c r="B1" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="102"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="106" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
+      <c r="B2" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="105"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51">
@@ -6092,22 +6098,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="82"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="9">
         <v>6</v>
@@ -6130,7 +6136,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="9">
         <v>8</v>
@@ -6153,7 +6159,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="9">
         <v>8</v>
@@ -6176,7 +6182,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="9">
         <v>7</v>
@@ -6199,7 +6205,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="9">
         <v>8</v>
@@ -6222,7 +6228,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="9">
         <v>5</v>
@@ -6245,7 +6251,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="9">
         <v>5</v>
@@ -6268,7 +6274,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="9">
         <v>5</v>
@@ -6291,7 +6297,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="9">
         <v>5</v>
@@ -6314,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="9">
         <v>8</v>
@@ -6337,7 +6343,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="9">
         <v>4</v>
@@ -6360,7 +6366,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="9">
         <v>4</v>
@@ -6383,7 +6389,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -6406,7 +6412,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
@@ -6429,7 +6435,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
@@ -6452,7 +6458,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="9">
         <v>2</v>
@@ -6475,7 +6481,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="9">
         <v>6</v>
@@ -6498,7 +6504,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="9">
         <v>6</v>
@@ -6521,7 +6527,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="9">
         <v>6</v>
@@ -6544,7 +6550,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="9">
         <v>5</v>
@@ -6567,7 +6573,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="9">
         <v>5</v>
@@ -6590,7 +6596,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="9">
         <v>5</v>
@@ -6613,7 +6619,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="9">
         <v>7</v>
@@ -6636,7 +6642,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="9">
         <v>8</v>
@@ -6659,7 +6665,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="9">
         <v>5</v>
@@ -6682,7 +6688,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="53">
         <v>6</v>
@@ -6705,7 +6711,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="9">
         <v>6</v>
@@ -6728,7 +6734,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="9">
         <v>6</v>
@@ -6751,7 +6757,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="9">
         <v>7</v>
@@ -6774,7 +6780,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="9">
         <v>8</v>
@@ -6797,7 +6803,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="9">
         <v>5</v>
@@ -6820,7 +6826,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="9">
         <v>5</v>
@@ -6843,7 +6849,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="9">
         <v>8</v>
@@ -6866,7 +6872,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="9">
         <v>5</v>
@@ -6889,7 +6895,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="9">
         <v>8</v>
@@ -6912,7 +6918,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="9">
         <v>4</v>
@@ -6935,7 +6941,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="9">
         <v>4</v>
@@ -6958,7 +6964,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -6981,7 +6987,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" s="9">
         <v>2</v>
@@ -7004,7 +7010,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41" s="9">
         <v>1</v>
@@ -7027,7 +7033,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="9">
         <v>2</v>
@@ -7050,7 +7056,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" s="9">
         <v>6</v>
@@ -7073,7 +7079,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="9">
         <v>8</v>
@@ -7096,7 +7102,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="9">
         <v>8</v>
@@ -7119,7 +7125,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="9">
         <v>5</v>
@@ -7142,7 +7148,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="9">
         <v>8</v>
@@ -7165,7 +7171,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" s="9">
         <v>5</v>
@@ -7188,7 +7194,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" s="9">
         <v>7</v>
@@ -7211,7 +7217,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" s="9">
         <v>8</v>
@@ -7234,7 +7240,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="9">
         <v>5</v>
@@ -7278,21 +7284,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -7312,7 +7318,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -7332,7 +7338,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
@@ -7352,7 +7358,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -7372,7 +7378,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -7392,7 +7398,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="53">
         <v>2</v>
@@ -7412,7 +7418,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="9">
         <v>6</v>
@@ -7432,7 +7438,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="9">
         <v>6</v>
@@ -7452,7 +7458,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="9">
         <v>6</v>
@@ -7472,7 +7478,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="9">
         <v>5</v>
@@ -7488,191 +7494,191 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="110">
+      <c r="A12" s="109">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="111">
+        <v>2</v>
+      </c>
+      <c r="D12" s="111">
+        <v>3</v>
+      </c>
+      <c r="E12" s="111">
+        <v>4</v>
+      </c>
+      <c r="F12" s="111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="110"/>
+      <c r="B13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="112">
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="109">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="111">
+        <v>3</v>
+      </c>
+      <c r="D14" s="111">
+        <v>5</v>
+      </c>
+      <c r="E14" s="111">
+        <v>7</v>
+      </c>
+      <c r="F14" s="111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="110"/>
+      <c r="B15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="109">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="111">
+        <v>1</v>
+      </c>
+      <c r="D16" s="111">
         <v>2</v>
       </c>
-      <c r="D12" s="112">
-        <v>3</v>
-      </c>
-      <c r="E12" s="112">
-        <v>4</v>
-      </c>
-      <c r="F12" s="112">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="9" t="s">
+      <c r="E16" s="111">
+        <v>10</v>
+      </c>
+      <c r="F16" s="111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="110"/>
+      <c r="B17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="109">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="111">
+        <v>1</v>
+      </c>
+      <c r="D18" s="111">
+        <v>2</v>
+      </c>
+      <c r="E18" s="111">
+        <v>11</v>
+      </c>
+      <c r="F18" s="111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="110"/>
+      <c r="B19" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="110">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="109">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="111">
+        <v>6</v>
+      </c>
+      <c r="D20" s="111">
+        <v>7</v>
+      </c>
+      <c r="E20" s="111">
+        <v>11</v>
+      </c>
+      <c r="F20" s="111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="110"/>
+      <c r="B21" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="112">
-        <v>3</v>
-      </c>
-      <c r="D14" s="112">
-        <v>5</v>
-      </c>
-      <c r="E14" s="112">
-        <v>7</v>
-      </c>
-      <c r="F14" s="112">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
-      <c r="B15" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="110">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="109">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="112">
-        <v>1</v>
-      </c>
-      <c r="D16" s="112">
-        <v>2</v>
-      </c>
-      <c r="E16" s="112">
+      <c r="C22" s="111">
+        <v>5</v>
+      </c>
+      <c r="D22" s="111">
+        <v>8</v>
+      </c>
+      <c r="E22" s="111">
         <v>10</v>
       </c>
-      <c r="F16" s="112">
+      <c r="F22" s="111">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="9" t="s">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="110"/>
+      <c r="B23" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="110">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="112">
-        <v>1</v>
-      </c>
-      <c r="D18" s="112">
-        <v>2</v>
-      </c>
-      <c r="E18" s="112">
-        <v>11</v>
-      </c>
-      <c r="F18" s="112">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
-      <c r="B19" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="110">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="112">
-        <v>6</v>
-      </c>
-      <c r="D20" s="112">
-        <v>7</v>
-      </c>
-      <c r="E20" s="112">
-        <v>11</v>
-      </c>
-      <c r="F20" s="112">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="111"/>
-      <c r="B21" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="110">
-        <v>16</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="112">
-        <v>5</v>
-      </c>
-      <c r="D22" s="112">
-        <v>8</v>
-      </c>
-      <c r="E22" s="112">
-        <v>10</v>
-      </c>
-      <c r="F22" s="112">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111"/>
-      <c r="B23" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51">
         <v>17</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="9">
         <v>2</v>
@@ -7692,7 +7698,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="9">
         <v>2</v>
@@ -7712,7 +7718,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="9">
         <v>3</v>
@@ -7732,7 +7738,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="9">
         <v>5</v>
@@ -7752,7 +7758,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="9">
         <v>1</v>
@@ -7772,7 +7778,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
@@ -7792,7 +7798,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
@@ -7812,7 +7818,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -7832,7 +7838,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
@@ -7852,7 +7858,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="53">
         <v>2</v>
@@ -7872,7 +7878,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="9">
         <v>3</v>
@@ -7892,7 +7898,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="9">
         <v>1</v>
@@ -7912,7 +7918,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="9">
         <v>1</v>
@@ -7932,7 +7938,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="9">
         <v>6</v>
@@ -7952,7 +7958,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="53">
         <v>5</v>
@@ -7972,7 +7978,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="9">
         <v>2</v>
@@ -7992,7 +7998,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="9">
         <v>2</v>
@@ -8012,7 +8018,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="9">
         <v>3</v>
@@ -8032,207 +8038,207 @@
         <v>35</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="9">
+        <v>5</v>
+      </c>
+      <c r="D42" s="9">
+        <v>6</v>
+      </c>
+      <c r="E42" s="9">
+        <v>8</v>
+      </c>
+      <c r="F42" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="109">
+        <v>36</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="9">
-        <v>5</v>
-      </c>
-      <c r="D42" s="9">
-        <v>6</v>
-      </c>
-      <c r="E42" s="9">
-        <v>8</v>
-      </c>
-      <c r="F42" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="110">
-        <v>36</v>
-      </c>
-      <c r="B43" s="7" t="s">
+      <c r="C43" s="111">
+        <v>1</v>
+      </c>
+      <c r="D43" s="111">
+        <v>2</v>
+      </c>
+      <c r="E43" s="111">
+        <v>3</v>
+      </c>
+      <c r="F43" s="111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="110"/>
+      <c r="B44" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="112">
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="109">
+        <v>37</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="111">
         <v>1</v>
       </c>
-      <c r="D43" s="112">
+      <c r="D45" s="111">
         <v>2</v>
       </c>
-      <c r="E43" s="112">
+      <c r="E45" s="111">
         <v>3</v>
       </c>
-      <c r="F43" s="112">
+      <c r="F45" s="111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="110"/>
+      <c r="B46" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="109">
+        <v>38</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="111">
+        <v>1</v>
+      </c>
+      <c r="D47" s="111">
+        <v>5</v>
+      </c>
+      <c r="E47" s="111">
+        <v>11</v>
+      </c>
+      <c r="F47" s="111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="110"/>
+      <c r="B48" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="109">
+        <v>39</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="111">
+        <v>1</v>
+      </c>
+      <c r="D49" s="111">
+        <v>6</v>
+      </c>
+      <c r="E49" s="111">
+        <v>8</v>
+      </c>
+      <c r="F49" s="111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="110"/>
+      <c r="B50" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="112"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="109">
+        <v>40</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="111">
+        <v>1</v>
+      </c>
+      <c r="D51" s="111">
+        <v>7</v>
+      </c>
+      <c r="E51" s="111">
+        <v>8</v>
+      </c>
+      <c r="F51" s="111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="110"/>
+      <c r="B52" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="109">
+        <v>41</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="111">
+        <v>2</v>
+      </c>
+      <c r="D53" s="111">
+        <v>3</v>
+      </c>
+      <c r="E53" s="111">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="111"/>
-      <c r="B44" s="9" t="s">
+      <c r="F53" s="111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="110"/>
+      <c r="B54" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="110">
-        <v>37</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="112">
-        <v>1</v>
-      </c>
-      <c r="D45" s="112">
-        <v>2</v>
-      </c>
-      <c r="E45" s="112">
-        <v>3</v>
-      </c>
-      <c r="F45" s="112">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="111"/>
-      <c r="B46" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="110">
-        <v>38</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="112">
-        <v>1</v>
-      </c>
-      <c r="D47" s="112">
-        <v>5</v>
-      </c>
-      <c r="E47" s="112">
-        <v>11</v>
-      </c>
-      <c r="F47" s="112">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="111"/>
-      <c r="B48" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="110">
-        <v>39</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="112">
-        <v>1</v>
-      </c>
-      <c r="D49" s="112">
-        <v>6</v>
-      </c>
-      <c r="E49" s="112">
-        <v>8</v>
-      </c>
-      <c r="F49" s="112">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="111"/>
-      <c r="B50" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="110">
-        <v>40</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="112">
-        <v>1</v>
-      </c>
-      <c r="D51" s="112">
-        <v>7</v>
-      </c>
-      <c r="E51" s="112">
-        <v>8</v>
-      </c>
-      <c r="F51" s="112">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="111"/>
-      <c r="B52" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="110">
-        <v>41</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="112">
-        <v>2</v>
-      </c>
-      <c r="D53" s="112">
-        <v>3</v>
-      </c>
-      <c r="E53" s="112">
-        <v>4</v>
-      </c>
-      <c r="F53" s="112">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="111"/>
-      <c r="B54" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="51">
         <v>42</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C55" s="9">
         <v>6</v>
@@ -8252,7 +8258,7 @@
         <v>43</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C56" s="9">
         <v>6</v>
@@ -8272,7 +8278,7 @@
         <v>44</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="9">
         <v>6</v>
@@ -8292,7 +8298,7 @@
         <v>45</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="9">
         <v>5</v>
@@ -8312,7 +8318,7 @@
         <v>46</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" s="9">
         <v>5</v>
@@ -8332,7 +8338,7 @@
         <v>47</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C60" s="9">
         <v>2</v>
@@ -8352,7 +8358,7 @@
         <v>48</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C61" s="9">
         <v>2</v>
@@ -8372,7 +8378,7 @@
         <v>49</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" s="9">
         <v>3</v>
@@ -8392,7 +8398,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="9">
         <v>5</v>
@@ -8409,67 +8415,67 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10334,25 +10340,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="78" t="s">
+      <c r="F1" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="G1" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="H1" s="78" t="s">
         <v>131</v>
-      </c>
-      <c r="H1" s="78" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14011,7 +14017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A627CEA-012C-EF45-ABDD-149CED4F2A13}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -14021,11 +14027,11 @@
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="82" t="s">
         <v>135</v>
-      </c>
-      <c r="C1" s="115" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17322,21 +17328,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17203E47-9640-6F41-A9B3-988FA7498EAA}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="113" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="114" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63">
@@ -18039,9 +18049,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18060,17 +18067,17 @@
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="87"/>
+      <c r="C1" s="84"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="70">
         <v>1</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="59">
         <v>1</v>
@@ -18092,7 +18099,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="59">
         <v>4</v>
@@ -18114,7 +18121,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="59">
         <v>7</v>
@@ -18136,7 +18143,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="59">
         <v>10</v>
@@ -18257,7 +18264,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="72">
         <v>2</v>
@@ -18279,7 +18286,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="59">
         <v>5</v>
@@ -18301,7 +18308,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="59">
         <v>8</v>
@@ -18444,7 +18451,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="72">
         <v>3</v>
@@ -18466,7 +18473,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="59">
         <v>6</v>
@@ -18488,7 +18495,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="59">
         <v>9</v>

--- a/data/stat_analiz.xlsx
+++ b/data/stat_analiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blackbox1\Documents\GitHub\Multidimensional-Statistical-Analysis-Solver\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A848622-A622-4A53-A618-2B92A5A62370}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ED433C-68D2-44A8-95A1-5BC773D27B00}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" activeTab="7" xr2:uid="{D058E3EF-B9BB-9C4E-8C26-8450DF2B1A32}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" activeTab="9" xr2:uid="{D058E3EF-B9BB-9C4E-8C26-8450DF2B1A32}"/>
   </bookViews>
   <sheets>
     <sheet name="А.1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="134">
   <si>
     <t>Варіант</t>
   </si>
@@ -565,25 +565,10 @@
     <t>С</t>
   </si>
   <si>
-    <t>Стать (С)</t>
-  </si>
-  <si>
-    <t>Типи акцентуацій</t>
-  </si>
-  <si>
     <t>ч</t>
   </si>
   <si>
-    <t>Медіана (ч)</t>
-  </si>
-  <si>
     <t>ж</t>
-  </si>
-  <si>
-    <t>Медіана (ж)</t>
-  </si>
-  <si>
-    <t>Медіана (заг.)</t>
   </si>
   <si>
     <t>класифікації</t>
@@ -1076,7 +1061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1314,26 +1299,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1404,13 +1377,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2303,517 +2273,541 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676FA18C-6E7B-584D-B24B-A7017CCD41F4}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="60">
+        <v>1</v>
+      </c>
+      <c r="D1" s="60">
+        <v>2</v>
+      </c>
+      <c r="E1" s="60">
+        <v>3</v>
+      </c>
+      <c r="F1" s="60">
+        <v>4</v>
+      </c>
+      <c r="G1" s="60">
+        <v>5</v>
+      </c>
+      <c r="H1" s="60">
+        <v>6</v>
+      </c>
+      <c r="I1" s="60">
+        <v>7</v>
+      </c>
+      <c r="J1" s="60">
+        <v>8</v>
+      </c>
+      <c r="K1" s="60">
+        <v>9</v>
+      </c>
+      <c r="L1" s="60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="86"/>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="60">
-        <v>1</v>
-      </c>
-      <c r="D2" s="60">
-        <v>2</v>
-      </c>
-      <c r="E2" s="60">
+      <c r="C2" s="9">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9">
+        <v>12</v>
+      </c>
+      <c r="F2" s="9">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9">
+        <v>12</v>
+      </c>
+      <c r="I2" s="9">
+        <v>16</v>
+      </c>
+      <c r="J2" s="9">
+        <v>9</v>
+      </c>
+      <c r="K2" s="9">
         <v>3</v>
       </c>
-      <c r="F2" s="60">
-        <v>4</v>
-      </c>
-      <c r="G2" s="60">
-        <v>5</v>
-      </c>
-      <c r="H2" s="60">
-        <v>6</v>
-      </c>
-      <c r="I2" s="60">
-        <v>7</v>
-      </c>
-      <c r="J2" s="60">
-        <v>8</v>
-      </c>
-      <c r="K2" s="60">
-        <v>9</v>
-      </c>
-      <c r="L2" s="60">
-        <v>10</v>
+      <c r="L2" s="9">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>9</v>
+      </c>
+      <c r="H3" s="9">
         <v>21</v>
       </c>
-      <c r="D3" s="9">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="I3" s="9">
         <v>10</v>
       </c>
-      <c r="G3" s="9">
-        <v>9</v>
-      </c>
-      <c r="H3" s="9">
-        <v>12</v>
-      </c>
-      <c r="I3" s="9">
-        <v>16</v>
-      </c>
       <c r="J3" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K3" s="9">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="L3" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D4" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F4" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G4" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H4" s="9">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I4" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="9">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K4" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L4" s="9">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="9">
         <v>12</v>
       </c>
       <c r="D5" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="9">
+        <v>9</v>
+      </c>
+      <c r="F5" s="9">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9">
+        <v>6</v>
+      </c>
+      <c r="H5" s="9">
         <v>15</v>
       </c>
-      <c r="F5" s="9">
-        <v>12</v>
-      </c>
-      <c r="G5" s="9">
-        <v>12</v>
-      </c>
-      <c r="H5" s="9">
-        <v>9</v>
-      </c>
       <c r="I5" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" s="9">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K5" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L5" s="9">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" s="9">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E6" s="9">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F6" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G6" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H6" s="9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I6" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J6" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K6" s="9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L6" s="9">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D7" s="9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E7" s="9">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9">
+        <v>14</v>
+      </c>
+      <c r="G7" s="9">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9">
+        <v>12</v>
+      </c>
+      <c r="I7" s="9">
+        <v>10</v>
+      </c>
+      <c r="J7" s="9">
         <v>18</v>
       </c>
-      <c r="F7" s="9">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9">
-        <v>12</v>
-      </c>
-      <c r="H7" s="9">
-        <v>9</v>
-      </c>
-      <c r="I7" s="9">
-        <v>18</v>
-      </c>
-      <c r="J7" s="9">
-        <v>12</v>
-      </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L7" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" s="9">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9">
         <v>16</v>
       </c>
-      <c r="E8" s="9">
-        <v>9</v>
-      </c>
-      <c r="F8" s="9">
-        <v>14</v>
-      </c>
       <c r="G8" s="9">
         <v>9</v>
       </c>
       <c r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9">
         <v>10</v>
       </c>
       <c r="J8" s="9">
+        <v>15</v>
+      </c>
+      <c r="K8" s="9">
         <v>18</v>
       </c>
-      <c r="K8" s="9">
-        <v>15</v>
-      </c>
       <c r="L8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D9" s="9">
         <v>18</v>
       </c>
       <c r="E9" s="9">
+        <v>18</v>
+      </c>
+      <c r="F9" s="9">
+        <v>14</v>
+      </c>
+      <c r="G9" s="9">
+        <v>9</v>
+      </c>
+      <c r="H9" s="9">
+        <v>21</v>
+      </c>
+      <c r="I9" s="9">
+        <v>16</v>
+      </c>
+      <c r="J9" s="9">
+        <v>21</v>
+      </c>
+      <c r="K9" s="9">
         <v>15</v>
       </c>
-      <c r="F9" s="9">
-        <v>16</v>
-      </c>
-      <c r="G9" s="9">
-        <v>9</v>
-      </c>
-      <c r="H9" s="9">
-        <v>18</v>
-      </c>
-      <c r="I9" s="9">
-        <v>10</v>
-      </c>
-      <c r="J9" s="9">
-        <v>15</v>
-      </c>
-      <c r="K9" s="9">
-        <v>18</v>
-      </c>
       <c r="L9" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" s="9">
+        <v>10</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>4</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>6</v>
+      </c>
+      <c r="I10" s="9">
         <v>18</v>
       </c>
-      <c r="E10" s="9">
-        <v>18</v>
-      </c>
-      <c r="F10" s="9">
-        <v>14</v>
-      </c>
-      <c r="G10" s="9">
-        <v>9</v>
-      </c>
-      <c r="H10" s="9">
-        <v>21</v>
-      </c>
-      <c r="I10" s="9">
-        <v>16</v>
-      </c>
       <c r="J10" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K10" s="9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L10" s="9">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="9">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D11" s="9">
         <v>10</v>
       </c>
       <c r="E11" s="9">
+        <v>24</v>
+      </c>
+      <c r="F11" s="9">
+        <v>16</v>
+      </c>
+      <c r="G11" s="9">
+        <v>9</v>
+      </c>
+      <c r="H11" s="9">
+        <v>21</v>
+      </c>
+      <c r="I11" s="9">
+        <v>12</v>
+      </c>
+      <c r="J11" s="9">
+        <v>12</v>
+      </c>
+      <c r="K11" s="9">
+        <v>15</v>
+      </c>
+      <c r="L11" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="9">
         <v>0</v>
       </c>
-      <c r="F11" s="9">
-        <v>4</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>6</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="D12" s="9">
+        <v>10</v>
+      </c>
+      <c r="E12" s="9">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9">
+        <v>9</v>
+      </c>
+      <c r="H12" s="9">
         <v>18</v>
       </c>
-      <c r="J11" s="9">
-        <v>12</v>
-      </c>
-      <c r="K11" s="9">
-        <v>3</v>
-      </c>
-      <c r="L11" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="60">
-        <v>15</v>
-      </c>
-      <c r="D12" s="60">
-        <v>14</v>
-      </c>
-      <c r="E12" s="60">
-        <v>12</v>
-      </c>
-      <c r="F12" s="60">
-        <v>12</v>
-      </c>
-      <c r="G12" s="60">
-        <v>9</v>
-      </c>
-      <c r="H12" s="60">
-        <v>12</v>
-      </c>
-      <c r="I12" s="60">
-        <v>14</v>
-      </c>
-      <c r="J12" s="60">
-        <v>15</v>
-      </c>
-      <c r="K12" s="60">
-        <v>12</v>
-      </c>
-      <c r="L12" s="60">
-        <v>12</v>
+      <c r="I12" s="9">
+        <v>12</v>
+      </c>
+      <c r="J12" s="9">
+        <v>9</v>
+      </c>
+      <c r="K12" s="9">
+        <v>24</v>
+      </c>
+      <c r="L12" s="9">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="9">
+        <v>21</v>
+      </c>
+      <c r="D13" s="9">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9">
+        <v>21</v>
+      </c>
+      <c r="F13" s="9">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9">
+        <v>15</v>
+      </c>
+      <c r="H13" s="9">
+        <v>9</v>
+      </c>
+      <c r="I13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="9">
-        <v>3</v>
-      </c>
-      <c r="D13" s="9">
-        <v>10</v>
-      </c>
-      <c r="E13" s="9">
-        <v>24</v>
-      </c>
-      <c r="F13" s="9">
-        <v>16</v>
-      </c>
-      <c r="G13" s="9">
-        <v>9</v>
-      </c>
-      <c r="H13" s="9">
-        <v>21</v>
-      </c>
-      <c r="I13" s="9">
-        <v>12</v>
-      </c>
       <c r="J13" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K13" s="9">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L13" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" s="9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D14" s="9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E14" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F14" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14" s="9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H14" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J14" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K14" s="9">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L14" s="9">
         <v>18</v>
@@ -2821,34 +2815,34 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C15" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D15" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15" s="9">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F15" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H15" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J15" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15" s="9">
         <v>6</v>
@@ -2859,89 +2853,89 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C16" s="9">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D16" s="9">
+        <v>12</v>
+      </c>
+      <c r="E16" s="9">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9">
+        <v>10</v>
+      </c>
+      <c r="G16" s="9">
+        <v>12</v>
+      </c>
+      <c r="H16" s="9">
+        <v>15</v>
+      </c>
+      <c r="I16" s="9">
         <v>16</v>
       </c>
-      <c r="E16" s="9">
-        <v>18</v>
-      </c>
-      <c r="F16" s="9">
-        <v>16</v>
-      </c>
-      <c r="G16" s="9">
-        <v>6</v>
-      </c>
-      <c r="H16" s="9">
-        <v>24</v>
-      </c>
-      <c r="I16" s="9">
-        <v>20</v>
-      </c>
       <c r="J16" s="9">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K16" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L16" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C17" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D17" s="9">
         <v>14</v>
       </c>
       <c r="E17" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F17" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G17" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H17" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J17" s="9">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="K17" s="9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L17" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C18" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D18" s="9">
         <v>12</v>
@@ -2950,42 +2944,42 @@
         <v>15</v>
       </c>
       <c r="F18" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G18" s="9">
         <v>12</v>
       </c>
       <c r="H18" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J18" s="9">
         <v>15</v>
       </c>
       <c r="K18" s="9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L18" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C19" s="9">
+        <v>21</v>
+      </c>
+      <c r="D19" s="9">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9">
         <v>18</v>
-      </c>
-      <c r="D19" s="9">
-        <v>14</v>
-      </c>
-      <c r="E19" s="9">
-        <v>12</v>
       </c>
       <c r="F19" s="9">
         <v>10</v>
@@ -2997,13 +2991,13 @@
         <v>21</v>
       </c>
       <c r="I19" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J19" s="9">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K19" s="9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L19" s="9">
         <v>18</v>
@@ -3011,22 +3005,22 @@
     </row>
     <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C20" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D20" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E20" s="9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F20" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G20" s="9">
         <v>12</v>
@@ -3035,89 +3029,89 @@
         <v>12</v>
       </c>
       <c r="I20" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J20" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K20" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L20" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C21" s="9">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D21" s="9">
         <v>10</v>
       </c>
       <c r="E21" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F21" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G21" s="9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H21" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J21" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K21" s="9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L21" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" s="9">
         <v>14</v>
       </c>
       <c r="E22" s="9">
+        <v>12</v>
+      </c>
+      <c r="F22" s="9">
+        <v>16</v>
+      </c>
+      <c r="G22" s="9">
         <v>24</v>
       </c>
-      <c r="F22" s="9">
-        <v>12</v>
-      </c>
-      <c r="G22" s="9">
-        <v>12</v>
-      </c>
       <c r="H22" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J22" s="9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K22" s="9">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L22" s="9">
         <v>24</v>
@@ -3125,75 +3119,75 @@
     </row>
     <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C23" s="9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D23" s="9">
+        <v>16</v>
+      </c>
+      <c r="E23" s="9">
+        <v>18</v>
+      </c>
+      <c r="F23" s="9">
+        <v>14</v>
+      </c>
+      <c r="G23" s="9">
+        <v>9</v>
+      </c>
+      <c r="H23" s="9">
+        <v>6</v>
+      </c>
+      <c r="I23" s="9">
         <v>10</v>
       </c>
-      <c r="E23" s="9">
-        <v>12</v>
-      </c>
-      <c r="F23" s="9">
-        <v>4</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>12</v>
-      </c>
-      <c r="I23" s="9">
-        <v>12</v>
-      </c>
       <c r="J23" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K23" s="9">
         <v>15</v>
       </c>
       <c r="L23" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="9">
+        <v>9</v>
+      </c>
+      <c r="D24" s="9">
+        <v>16</v>
+      </c>
+      <c r="E24" s="9">
         <v>21</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="9">
-        <v>9</v>
-      </c>
-      <c r="D24" s="9">
-        <v>14</v>
-      </c>
-      <c r="E24" s="9">
-        <v>12</v>
-      </c>
       <c r="F24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H24" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J24" s="9">
         <v>15</v>
       </c>
       <c r="K24" s="9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L24" s="9">
         <v>24</v>
@@ -3201,48 +3195,48 @@
     </row>
     <row r="25" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C25" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E25" s="9">
         <v>18</v>
       </c>
       <c r="F25" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G25" s="9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H25" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I25" s="9">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J25" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K25" s="9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L25" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C26" s="9">
         <v>9</v>
@@ -3251,263 +3245,107 @@
         <v>16</v>
       </c>
       <c r="E26" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="9">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G26" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H26" s="9">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I26" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J26" s="9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K26" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L26" s="9">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C27" s="9">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E27" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F27" s="9">
         <v>10</v>
       </c>
       <c r="G27" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H27" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9">
+        <v>14</v>
+      </c>
+      <c r="J27" s="9">
+        <v>21</v>
+      </c>
+      <c r="K27" s="9">
+        <v>12</v>
+      </c>
+      <c r="L27" s="9">
         <v>18</v>
-      </c>
-      <c r="J27" s="9">
-        <v>12</v>
-      </c>
-      <c r="K27" s="9">
-        <v>3</v>
-      </c>
-      <c r="L27" s="9">
-        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C28" s="9">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D28" s="9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E28" s="9">
         <v>18</v>
       </c>
       <c r="F28" s="9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G28" s="9">
+        <v>6</v>
+      </c>
+      <c r="H28" s="9">
+        <v>21</v>
+      </c>
+      <c r="I28" s="9">
+        <v>20</v>
+      </c>
+      <c r="J28" s="9">
         <v>15</v>
       </c>
-      <c r="H28" s="9">
-        <v>6</v>
-      </c>
-      <c r="I28" s="9">
-        <v>8</v>
-      </c>
-      <c r="J28" s="9">
-        <v>9</v>
-      </c>
       <c r="K28" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L28" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>26</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="9">
-        <v>3</v>
-      </c>
-      <c r="D29" s="9">
-        <v>16</v>
-      </c>
-      <c r="E29" s="9">
-        <v>12</v>
-      </c>
-      <c r="F29" s="9">
-        <v>10</v>
-      </c>
-      <c r="G29" s="9">
-        <v>12</v>
-      </c>
-      <c r="H29" s="9">
-        <v>21</v>
-      </c>
-      <c r="I29" s="9">
-        <v>14</v>
-      </c>
-      <c r="J29" s="9">
-        <v>21</v>
-      </c>
-      <c r="K29" s="9">
-        <v>12</v>
-      </c>
-      <c r="L29" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>27</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="9">
-        <v>24</v>
-      </c>
-      <c r="D30" s="9">
-        <v>10</v>
-      </c>
-      <c r="E30" s="9">
-        <v>18</v>
-      </c>
-      <c r="F30" s="9">
-        <v>16</v>
-      </c>
-      <c r="G30" s="9">
-        <v>6</v>
-      </c>
-      <c r="H30" s="9">
-        <v>21</v>
-      </c>
-      <c r="I30" s="9">
-        <v>20</v>
-      </c>
-      <c r="J30" s="9">
-        <v>15</v>
-      </c>
-      <c r="K30" s="9">
-        <v>6</v>
-      </c>
-      <c r="L30" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="60">
-        <v>10.5</v>
-      </c>
-      <c r="D31" s="60">
-        <v>13</v>
-      </c>
-      <c r="E31" s="60">
-        <v>18</v>
-      </c>
-      <c r="F31" s="60">
-        <v>12</v>
-      </c>
-      <c r="G31" s="60">
-        <v>10.5</v>
-      </c>
-      <c r="H31" s="60">
-        <v>16.5</v>
-      </c>
-      <c r="I31" s="60">
-        <v>13</v>
-      </c>
-      <c r="J31" s="60">
-        <v>13.5</v>
-      </c>
-      <c r="K31" s="60">
-        <v>12</v>
-      </c>
-      <c r="L31" s="60">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="60">
-        <v>12</v>
-      </c>
-      <c r="D32" s="60">
-        <v>14</v>
-      </c>
-      <c r="E32" s="60">
-        <v>15</v>
-      </c>
-      <c r="F32" s="60">
-        <v>12</v>
-      </c>
-      <c r="G32" s="60">
-        <v>9</v>
-      </c>
-      <c r="H32" s="60">
-        <v>15</v>
-      </c>
-      <c r="I32" s="60">
-        <v>14</v>
-      </c>
-      <c r="J32" s="60">
-        <v>15</v>
-      </c>
-      <c r="K32" s="60">
-        <v>12</v>
-      </c>
-      <c r="L32" s="60">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A31:B31"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3525,33 +3363,33 @@
     <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="75"/>
       <c r="B1" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
+        <v>118</v>
+      </c>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="95"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
@@ -3571,7 +3409,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C4" s="25">
         <v>1</v>
@@ -3591,7 +3429,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
@@ -3611,7 +3449,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C6" s="25">
         <v>1</v>
@@ -3631,7 +3469,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C7" s="25">
         <v>1</v>
@@ -3651,7 +3489,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C8" s="25">
         <v>2</v>
@@ -3671,7 +3509,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C9" s="25">
         <v>6</v>
@@ -3691,7 +3529,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C10" s="25">
         <v>6</v>
@@ -3711,7 +3549,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C11" s="25">
         <v>6</v>
@@ -3731,7 +3569,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C12" s="25">
         <v>5</v>
@@ -3747,191 +3585,191 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="90">
+      <c r="A13" s="86">
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="92">
+        <v>104</v>
+      </c>
+      <c r="C13" s="88">
         <v>2</v>
       </c>
-      <c r="D13" s="92">
+      <c r="D13" s="88">
         <v>3</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="88">
         <v>4</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="88">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
+        <v>105</v>
+      </c>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="90">
+      <c r="A15" s="86">
         <v>12</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="92">
+        <v>104</v>
+      </c>
+      <c r="C15" s="88">
         <v>3</v>
       </c>
-      <c r="D15" s="92">
-        <v>5</v>
-      </c>
-      <c r="E15" s="92">
+      <c r="D15" s="88">
+        <v>5</v>
+      </c>
+      <c r="E15" s="88">
         <v>7</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F15" s="88">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
+        <v>106</v>
+      </c>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="90">
+      <c r="A17" s="86">
         <v>13</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="92">
+        <v>107</v>
+      </c>
+      <c r="C17" s="88">
         <v>1</v>
       </c>
-      <c r="D17" s="92">
+      <c r="D17" s="88">
         <v>2</v>
       </c>
-      <c r="E17" s="92">
+      <c r="E17" s="88">
         <v>10</v>
       </c>
-      <c r="F17" s="92">
+      <c r="F17" s="88">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
+        <v>105</v>
+      </c>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="90">
+      <c r="A19" s="86">
         <v>14</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="92">
+        <v>107</v>
+      </c>
+      <c r="C19" s="88">
         <v>1</v>
       </c>
-      <c r="D19" s="92">
+      <c r="D19" s="88">
         <v>2</v>
       </c>
-      <c r="E19" s="92">
+      <c r="E19" s="88">
         <v>11</v>
       </c>
-      <c r="F19" s="92">
+      <c r="F19" s="88">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="91"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
+        <v>106</v>
+      </c>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="90">
+      <c r="A21" s="86">
         <v>15</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="92">
-        <v>6</v>
-      </c>
-      <c r="D21" s="92">
+        <v>108</v>
+      </c>
+      <c r="C21" s="88">
+        <v>6</v>
+      </c>
+      <c r="D21" s="88">
         <v>7</v>
       </c>
-      <c r="E21" s="92">
+      <c r="E21" s="88">
         <v>11</v>
       </c>
-      <c r="F21" s="92">
+      <c r="F21" s="88">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="91"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
+        <v>105</v>
+      </c>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="90">
+      <c r="A23" s="86">
         <v>16</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="92">
-        <v>5</v>
-      </c>
-      <c r="D23" s="92">
-        <v>8</v>
-      </c>
-      <c r="E23" s="92">
+        <v>108</v>
+      </c>
+      <c r="C23" s="88">
+        <v>5</v>
+      </c>
+      <c r="D23" s="88">
+        <v>8</v>
+      </c>
+      <c r="E23" s="88">
         <v>10</v>
       </c>
-      <c r="F23" s="92">
+      <c r="F23" s="88">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="91"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
+        <v>106</v>
+      </c>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
         <v>17</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C25" s="25">
         <v>2</v>
@@ -3951,7 +3789,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C26" s="25">
         <v>2</v>
@@ -3971,7 +3809,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C27" s="25">
         <v>3</v>
@@ -3991,7 +3829,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C28" s="25">
         <v>5</v>
@@ -4011,7 +3849,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C29" s="25">
         <v>1</v>
@@ -4031,7 +3869,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C30" s="25">
         <v>1</v>
@@ -4051,7 +3889,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C31" s="25">
         <v>1</v>
@@ -4071,7 +3909,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C32" s="25">
         <v>1</v>
@@ -4091,7 +3929,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C33" s="25">
         <v>1</v>
@@ -4111,7 +3949,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C34" s="31">
         <v>2</v>
@@ -4131,7 +3969,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C35" s="25">
         <v>3</v>
@@ -4151,7 +3989,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C36" s="25">
         <v>1</v>
@@ -4171,7 +4009,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C37" s="25">
         <v>1</v>
@@ -4191,7 +4029,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C38" s="25">
         <v>6</v>
@@ -4211,7 +4049,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C39" s="25">
         <v>5</v>
@@ -4231,7 +4069,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C40" s="25">
         <v>2</v>
@@ -4251,7 +4089,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C41" s="25">
         <v>2</v>
@@ -4271,7 +4109,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C42" s="25">
         <v>3</v>
@@ -4291,207 +4129,207 @@
         <v>35</v>
       </c>
       <c r="B43" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="25">
+        <v>5</v>
+      </c>
+      <c r="D43" s="25">
+        <v>6</v>
+      </c>
+      <c r="E43" s="25">
+        <v>8</v>
+      </c>
+      <c r="F43" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="86">
+        <v>36</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="88">
+        <v>1</v>
+      </c>
+      <c r="D44" s="88">
+        <v>2</v>
+      </c>
+      <c r="E44" s="88">
+        <v>3</v>
+      </c>
+      <c r="F44" s="88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="87"/>
+      <c r="B45" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="86">
+        <v>37</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="88">
+        <v>1</v>
+      </c>
+      <c r="D46" s="88">
+        <v>2</v>
+      </c>
+      <c r="E46" s="88">
+        <v>3</v>
+      </c>
+      <c r="F46" s="88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="87"/>
+      <c r="B47" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="86">
+        <v>38</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="88">
+        <v>1</v>
+      </c>
+      <c r="D48" s="88">
+        <v>5</v>
+      </c>
+      <c r="E48" s="88">
+        <v>11</v>
+      </c>
+      <c r="F48" s="88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="87"/>
+      <c r="B49" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="86">
+        <v>39</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="88">
+        <v>1</v>
+      </c>
+      <c r="D50" s="88">
+        <v>6</v>
+      </c>
+      <c r="E50" s="88">
+        <v>8</v>
+      </c>
+      <c r="F50" s="88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="87"/>
+      <c r="B51" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="86">
+        <v>40</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="25">
-        <v>5</v>
-      </c>
-      <c r="D43" s="25">
-        <v>6</v>
-      </c>
-      <c r="E43" s="25">
-        <v>8</v>
-      </c>
-      <c r="F43" s="25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="90">
-        <v>36</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="92">
+      <c r="C52" s="88">
         <v>1</v>
       </c>
-      <c r="D44" s="92">
+      <c r="D52" s="88">
+        <v>7</v>
+      </c>
+      <c r="E52" s="88">
+        <v>8</v>
+      </c>
+      <c r="F52" s="88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="87"/>
+      <c r="B53" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="86">
+        <v>41</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="88">
         <v>2</v>
       </c>
-      <c r="E44" s="92">
+      <c r="D54" s="88">
         <v>3</v>
       </c>
-      <c r="F44" s="92">
+      <c r="E54" s="88">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="91"/>
-      <c r="B45" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="93"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="90">
-        <v>37</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="92">
-        <v>1</v>
-      </c>
-      <c r="D46" s="92">
-        <v>2</v>
-      </c>
-      <c r="E46" s="92">
-        <v>3</v>
-      </c>
-      <c r="F46" s="92">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="91"/>
-      <c r="B47" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="90">
-        <v>38</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="92">
-        <v>1</v>
-      </c>
-      <c r="D48" s="92">
-        <v>5</v>
-      </c>
-      <c r="E48" s="92">
-        <v>11</v>
-      </c>
-      <c r="F48" s="92">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="91"/>
-      <c r="B49" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="90">
-        <v>39</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="92">
-        <v>1</v>
-      </c>
-      <c r="D50" s="92">
-        <v>6</v>
-      </c>
-      <c r="E50" s="92">
-        <v>8</v>
-      </c>
-      <c r="F50" s="92">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="91"/>
-      <c r="B51" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="90">
-        <v>40</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="92">
-        <v>1</v>
-      </c>
-      <c r="D52" s="92">
+      <c r="F54" s="88">
         <v>7</v>
       </c>
-      <c r="E52" s="92">
-        <v>8</v>
-      </c>
-      <c r="F52" s="92">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="91"/>
-      <c r="B53" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="90">
-        <v>41</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="92">
-        <v>2</v>
-      </c>
-      <c r="D54" s="92">
-        <v>3</v>
-      </c>
-      <c r="E54" s="92">
-        <v>4</v>
-      </c>
-      <c r="F54" s="92">
-        <v>7</v>
-      </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="91"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="93"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
+        <v>106</v>
+      </c>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28">
         <v>42</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C56" s="25">
         <v>6</v>
@@ -4511,7 +4349,7 @@
         <v>43</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C57" s="25">
         <v>6</v>
@@ -4531,7 +4369,7 @@
         <v>44</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C58" s="25">
         <v>6</v>
@@ -4551,7 +4389,7 @@
         <v>45</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C59" s="25">
         <v>5</v>
@@ -4571,7 +4409,7 @@
         <v>46</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C60" s="25">
         <v>5</v>
@@ -4591,7 +4429,7 @@
         <v>47</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C61" s="25">
         <v>2</v>
@@ -4611,7 +4449,7 @@
         <v>48</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C62" s="25">
         <v>2</v>
@@ -4631,7 +4469,7 @@
         <v>49</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C63" s="25">
         <v>3</v>
@@ -4651,7 +4489,7 @@
         <v>50</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C64" s="25">
         <v>5</v>
@@ -4750,29 +4588,29 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="76"/>
-      <c r="B1" s="100" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="102"/>
+      <c r="B1" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="105"/>
+      <c r="B2" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51">
@@ -6098,22 +5936,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="108"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C2" s="9">
         <v>6</v>
@@ -6136,7 +5974,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C3" s="9">
         <v>8</v>
@@ -6159,7 +5997,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" s="9">
         <v>8</v>
@@ -6182,7 +6020,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C5" s="9">
         <v>7</v>
@@ -6205,7 +6043,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C6" s="9">
         <v>8</v>
@@ -6228,7 +6066,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C7" s="9">
         <v>5</v>
@@ -6251,7 +6089,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C8" s="9">
         <v>5</v>
@@ -6274,7 +6112,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C9" s="9">
         <v>5</v>
@@ -6297,7 +6135,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C10" s="9">
         <v>5</v>
@@ -6320,7 +6158,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C11" s="9">
         <v>8</v>
@@ -6343,7 +6181,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C12" s="9">
         <v>4</v>
@@ -6366,7 +6204,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C13" s="9">
         <v>4</v>
@@ -6389,7 +6227,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -6412,7 +6250,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
@@ -6435,7 +6273,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
@@ -6458,7 +6296,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C17" s="9">
         <v>2</v>
@@ -6481,7 +6319,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C18" s="9">
         <v>6</v>
@@ -6504,7 +6342,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C19" s="9">
         <v>6</v>
@@ -6527,7 +6365,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C20" s="9">
         <v>6</v>
@@ -6550,7 +6388,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C21" s="9">
         <v>5</v>
@@ -6573,7 +6411,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C22" s="9">
         <v>5</v>
@@ -6596,7 +6434,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C23" s="9">
         <v>5</v>
@@ -6619,7 +6457,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C24" s="9">
         <v>7</v>
@@ -6642,7 +6480,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C25" s="9">
         <v>8</v>
@@ -6665,7 +6503,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C26" s="9">
         <v>5</v>
@@ -6688,7 +6526,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C27" s="53">
         <v>6</v>
@@ -6711,7 +6549,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C28" s="9">
         <v>6</v>
@@ -6734,7 +6572,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C29" s="9">
         <v>6</v>
@@ -6757,7 +6595,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C30" s="9">
         <v>7</v>
@@ -6780,7 +6618,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C31" s="9">
         <v>8</v>
@@ -6803,7 +6641,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C32" s="9">
         <v>5</v>
@@ -6826,7 +6664,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C33" s="9">
         <v>5</v>
@@ -6849,7 +6687,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C34" s="9">
         <v>8</v>
@@ -6872,7 +6710,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C35" s="9">
         <v>5</v>
@@ -6895,7 +6733,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C36" s="9">
         <v>8</v>
@@ -6918,7 +6756,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C37" s="9">
         <v>4</v>
@@ -6941,7 +6779,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C38" s="9">
         <v>4</v>
@@ -6964,7 +6802,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -6987,7 +6825,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C40" s="9">
         <v>2</v>
@@ -7010,7 +6848,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C41" s="9">
         <v>1</v>
@@ -7033,7 +6871,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C42" s="9">
         <v>2</v>
@@ -7056,7 +6894,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C43" s="9">
         <v>6</v>
@@ -7079,7 +6917,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C44" s="9">
         <v>8</v>
@@ -7102,7 +6940,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C45" s="9">
         <v>8</v>
@@ -7125,7 +6963,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C46" s="9">
         <v>5</v>
@@ -7148,7 +6986,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C47" s="9">
         <v>8</v>
@@ -7171,7 +7009,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C48" s="9">
         <v>5</v>
@@ -7194,7 +7032,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C49" s="9">
         <v>7</v>
@@ -7217,7 +7055,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C50" s="9">
         <v>8</v>
@@ -7240,7 +7078,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C51" s="9">
         <v>5</v>
@@ -7284,21 +7122,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="105"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -7318,7 +7156,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -7338,7 +7176,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
@@ -7358,7 +7196,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -7378,7 +7216,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -7398,7 +7236,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C7" s="53">
         <v>2</v>
@@ -7418,7 +7256,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C8" s="9">
         <v>6</v>
@@ -7438,7 +7276,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C9" s="9">
         <v>6</v>
@@ -7458,7 +7296,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C10" s="9">
         <v>6</v>
@@ -7478,7 +7316,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C11" s="9">
         <v>5</v>
@@ -7494,191 +7332,191 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="109">
+      <c r="A12" s="105">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="111">
+        <v>104</v>
+      </c>
+      <c r="C12" s="107">
         <v>2</v>
       </c>
-      <c r="D12" s="111">
+      <c r="D12" s="107">
         <v>3</v>
       </c>
-      <c r="E12" s="111">
+      <c r="E12" s="107">
         <v>4</v>
       </c>
-      <c r="F12" s="111">
+      <c r="F12" s="107">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="110"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
+        <v>105</v>
+      </c>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="109">
+      <c r="A14" s="105">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="111">
+        <v>104</v>
+      </c>
+      <c r="C14" s="107">
         <v>3</v>
       </c>
-      <c r="D14" s="111">
-        <v>5</v>
-      </c>
-      <c r="E14" s="111">
+      <c r="D14" s="107">
+        <v>5</v>
+      </c>
+      <c r="E14" s="107">
         <v>7</v>
       </c>
-      <c r="F14" s="111">
+      <c r="F14" s="107">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
+        <v>106</v>
+      </c>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="109">
+      <c r="A16" s="105">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="111">
+        <v>107</v>
+      </c>
+      <c r="C16" s="107">
         <v>1</v>
       </c>
-      <c r="D16" s="111">
+      <c r="D16" s="107">
         <v>2</v>
       </c>
-      <c r="E16" s="111">
+      <c r="E16" s="107">
         <v>10</v>
       </c>
-      <c r="F16" s="111">
+      <c r="F16" s="107">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="110"/>
+      <c r="A17" s="106"/>
       <c r="B17" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
+        <v>105</v>
+      </c>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="109">
+      <c r="A18" s="105">
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="111">
+        <v>107</v>
+      </c>
+      <c r="C18" s="107">
         <v>1</v>
       </c>
-      <c r="D18" s="111">
+      <c r="D18" s="107">
         <v>2</v>
       </c>
-      <c r="E18" s="111">
+      <c r="E18" s="107">
         <v>11</v>
       </c>
-      <c r="F18" s="111">
+      <c r="F18" s="107">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="110"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
+        <v>106</v>
+      </c>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="109">
+      <c r="A20" s="105">
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="111">
-        <v>6</v>
-      </c>
-      <c r="D20" s="111">
+        <v>108</v>
+      </c>
+      <c r="C20" s="107">
+        <v>6</v>
+      </c>
+      <c r="D20" s="107">
         <v>7</v>
       </c>
-      <c r="E20" s="111">
+      <c r="E20" s="107">
         <v>11</v>
       </c>
-      <c r="F20" s="111">
+      <c r="F20" s="107">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
+        <v>105</v>
+      </c>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="109">
+      <c r="A22" s="105">
         <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="111">
-        <v>5</v>
-      </c>
-      <c r="D22" s="111">
-        <v>8</v>
-      </c>
-      <c r="E22" s="111">
+        <v>108</v>
+      </c>
+      <c r="C22" s="107">
+        <v>5</v>
+      </c>
+      <c r="D22" s="107">
+        <v>8</v>
+      </c>
+      <c r="E22" s="107">
         <v>10</v>
       </c>
-      <c r="F22" s="111">
+      <c r="F22" s="107">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="110"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
+        <v>106</v>
+      </c>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51">
         <v>17</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C24" s="9">
         <v>2</v>
@@ -7698,7 +7536,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C25" s="9">
         <v>2</v>
@@ -7718,7 +7556,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C26" s="9">
         <v>3</v>
@@ -7738,7 +7576,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C27" s="9">
         <v>5</v>
@@ -7758,7 +7596,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C28" s="9">
         <v>1</v>
@@ -7778,7 +7616,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
@@ -7798,7 +7636,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
@@ -7818,7 +7656,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -7838,7 +7676,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
@@ -7858,7 +7696,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C33" s="53">
         <v>2</v>
@@ -7878,7 +7716,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C34" s="9">
         <v>3</v>
@@ -7898,7 +7736,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C35" s="9">
         <v>1</v>
@@ -7918,7 +7756,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C36" s="9">
         <v>1</v>
@@ -7938,7 +7776,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C37" s="9">
         <v>6</v>
@@ -7958,7 +7796,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C38" s="53">
         <v>5</v>
@@ -7978,7 +7816,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C39" s="9">
         <v>2</v>
@@ -7998,7 +7836,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C40" s="9">
         <v>2</v>
@@ -8018,7 +7856,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C41" s="9">
         <v>3</v>
@@ -8038,207 +7876,207 @@
         <v>35</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="9">
+        <v>5</v>
+      </c>
+      <c r="D42" s="9">
+        <v>6</v>
+      </c>
+      <c r="E42" s="9">
+        <v>8</v>
+      </c>
+      <c r="F42" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="105">
+        <v>36</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="107">
+        <v>1</v>
+      </c>
+      <c r="D43" s="107">
+        <v>2</v>
+      </c>
+      <c r="E43" s="107">
+        <v>3</v>
+      </c>
+      <c r="F43" s="107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="106"/>
+      <c r="B44" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="105">
+        <v>37</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="107">
+        <v>1</v>
+      </c>
+      <c r="D45" s="107">
+        <v>2</v>
+      </c>
+      <c r="E45" s="107">
+        <v>3</v>
+      </c>
+      <c r="F45" s="107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="106"/>
+      <c r="B46" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="105">
+        <v>38</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="107">
+        <v>1</v>
+      </c>
+      <c r="D47" s="107">
+        <v>5</v>
+      </c>
+      <c r="E47" s="107">
+        <v>11</v>
+      </c>
+      <c r="F47" s="107">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="106"/>
+      <c r="B48" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="105">
+        <v>39</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="107">
+        <v>1</v>
+      </c>
+      <c r="D49" s="107">
+        <v>6</v>
+      </c>
+      <c r="E49" s="107">
+        <v>8</v>
+      </c>
+      <c r="F49" s="107">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="106"/>
+      <c r="B50" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="105">
+        <v>40</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="9">
-        <v>5</v>
-      </c>
-      <c r="D42" s="9">
-        <v>6</v>
-      </c>
-      <c r="E42" s="9">
-        <v>8</v>
-      </c>
-      <c r="F42" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="109">
-        <v>36</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="111">
+      <c r="C51" s="107">
         <v>1</v>
       </c>
-      <c r="D43" s="111">
+      <c r="D51" s="107">
+        <v>7</v>
+      </c>
+      <c r="E51" s="107">
+        <v>8</v>
+      </c>
+      <c r="F51" s="107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="106"/>
+      <c r="B52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="108"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="105">
+        <v>41</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="107">
         <v>2</v>
       </c>
-      <c r="E43" s="111">
+      <c r="D53" s="107">
         <v>3</v>
       </c>
-      <c r="F43" s="111">
+      <c r="E53" s="107">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="110"/>
-      <c r="B44" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="109">
-        <v>37</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="111">
-        <v>1</v>
-      </c>
-      <c r="D45" s="111">
-        <v>2</v>
-      </c>
-      <c r="E45" s="111">
-        <v>3</v>
-      </c>
-      <c r="F45" s="111">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="110"/>
-      <c r="B46" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="109">
-        <v>38</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="111">
-        <v>1</v>
-      </c>
-      <c r="D47" s="111">
-        <v>5</v>
-      </c>
-      <c r="E47" s="111">
-        <v>11</v>
-      </c>
-      <c r="F47" s="111">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="110"/>
-      <c r="B48" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="112"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="109">
-        <v>39</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="111">
-        <v>1</v>
-      </c>
-      <c r="D49" s="111">
-        <v>6</v>
-      </c>
-      <c r="E49" s="111">
-        <v>8</v>
-      </c>
-      <c r="F49" s="111">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="110"/>
-      <c r="B50" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="109">
-        <v>40</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="111">
-        <v>1</v>
-      </c>
-      <c r="D51" s="111">
+      <c r="F53" s="107">
         <v>7</v>
       </c>
-      <c r="E51" s="111">
-        <v>8</v>
-      </c>
-      <c r="F51" s="111">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="110"/>
-      <c r="B52" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="112"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="109">
-        <v>41</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="111">
-        <v>2</v>
-      </c>
-      <c r="D53" s="111">
-        <v>3</v>
-      </c>
-      <c r="E53" s="111">
-        <v>4</v>
-      </c>
-      <c r="F53" s="111">
-        <v>7</v>
-      </c>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="110"/>
+      <c r="A54" s="106"/>
       <c r="B54" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
+        <v>106</v>
+      </c>
+      <c r="C54" s="108"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="51">
         <v>42</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C55" s="9">
         <v>6</v>
@@ -8258,7 +8096,7 @@
         <v>43</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C56" s="9">
         <v>6</v>
@@ -8278,7 +8116,7 @@
         <v>44</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C57" s="9">
         <v>6</v>
@@ -8298,7 +8136,7 @@
         <v>45</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C58" s="9">
         <v>5</v>
@@ -8318,7 +8156,7 @@
         <v>46</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C59" s="9">
         <v>5</v>
@@ -8338,7 +8176,7 @@
         <v>47</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C60" s="9">
         <v>2</v>
@@ -8358,7 +8196,7 @@
         <v>48</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C61" s="9">
         <v>2</v>
@@ -8378,7 +8216,7 @@
         <v>49</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C62" s="9">
         <v>3</v>
@@ -8398,7 +8236,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C63" s="9">
         <v>5</v>
@@ -10340,25 +10178,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="79" t="s">
-        <v>132</v>
-      </c>
       <c r="D1" s="80" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H1" s="78" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14028,10 +13866,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17328,7 +17166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17203E47-9640-6F41-A9B3-988FA7498EAA}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -17338,14 +17176,14 @@
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="114" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="115" t="s">
-        <v>138</v>
+      <c r="B1" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -18058,7 +17896,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18067,10 +17905,12 @@
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="84"/>
+      <c r="B1" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="70">
@@ -18623,9 +18463,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>